--- a/企业新质生产力/5-13-data/data-2-entropy.xlsx
+++ b/企业新质生产力/5-13-data/data-2-entropy.xlsx
@@ -498,458 +498,458 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2011</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.03661170035701761</v>
+        <v>0.03651298381365277</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2012804169109708</v>
+        <v>0.2009954824218404</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2012804169109708</v>
+        <v>0.2009954824218404</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2012804169109708</v>
+        <v>0.2009954824218404</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2012804169109708</v>
+        <v>0.2009954824218404</v>
       </c>
       <c r="G2" t="n">
-        <v>0.007736031039842999</v>
+        <v>0.0078277172577012</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01238976346414572</v>
+        <v>0.01230723346524211</v>
       </c>
       <c r="I2" t="n">
-        <v>0.03602104454756565</v>
+        <v>0.03597005281134202</v>
       </c>
       <c r="J2" t="n">
-        <v>0.04259193200790531</v>
+        <v>0.04395646565430984</v>
       </c>
       <c r="K2" t="n">
-        <v>0.03228037421777004</v>
+        <v>0.03223470239211867</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02724748672186961</v>
+        <v>0.02720891491827176</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2012</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.03131104856309181</v>
+        <v>0.03130785451301302</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2136620185758938</v>
+        <v>0.2136585081262217</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2136620185758938</v>
+        <v>0.2136585081262217</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2136620185758938</v>
+        <v>0.2136585081262217</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2136620185758938</v>
+        <v>0.2136585081262217</v>
       </c>
       <c r="G3" t="n">
-        <v>0.007618223030550152</v>
+        <v>0.007680935998233085</v>
       </c>
       <c r="H3" t="n">
-        <v>0.01147110525601802</v>
+        <v>0.01145390024415372</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0264682918506266</v>
+        <v>0.02646785697873375</v>
       </c>
       <c r="J3" t="n">
-        <v>0.02818819610539731</v>
+        <v>0.02816102091482769</v>
       </c>
       <c r="K3" t="n">
-        <v>0.02299340527068047</v>
+        <v>0.02299302749089289</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01730165562006037</v>
+        <v>0.01730137135525888</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2013</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0308939524755542</v>
+        <v>0.03089170743566584</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2154729506489951</v>
+        <v>0.215460615396851</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2154730480564994</v>
+        <v>0.2154607127987789</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2154730480564994</v>
+        <v>0.2154607127987789</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2154730480564994</v>
+        <v>0.2154607127987789</v>
       </c>
       <c r="G4" t="n">
-        <v>0.007122466667355067</v>
+        <v>0.007175941858317451</v>
       </c>
       <c r="H4" t="n">
-        <v>0.01153538371821756</v>
+        <v>0.01155958268024845</v>
       </c>
       <c r="I4" t="n">
-        <v>0.02441012671082906</v>
+        <v>0.02440872929613297</v>
       </c>
       <c r="J4" t="n">
-        <v>0.02669386716170524</v>
+        <v>0.02667245775650507</v>
       </c>
       <c r="K4" t="n">
-        <v>0.02182149101820428</v>
+        <v>0.02181910456149018</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01563061742964121</v>
+        <v>0.01562972261845223</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2014</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.02891793248252487</v>
+        <v>0.02906023071910294</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2159514685586708</v>
+        <v>0.2159230711868428</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2159515684226354</v>
+        <v>0.2159231710376753</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2159515684226354</v>
+        <v>0.2159231710376753</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2159515684226354</v>
+        <v>0.2159231710376753</v>
       </c>
       <c r="G5" t="n">
-        <v>0.007111680094355269</v>
+        <v>0.007143864911174962</v>
       </c>
       <c r="H5" t="n">
-        <v>0.01159323794446066</v>
+        <v>0.01158326939778551</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0235469784409472</v>
+        <v>0.02354388204013698</v>
       </c>
       <c r="J5" t="n">
-        <v>0.02726519514922053</v>
+        <v>0.02722408400530651</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0216881069521872</v>
+        <v>0.02168350279497541</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01607069510972742</v>
+        <v>0.01606858183164876</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2015</v>
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.03231550943195536</v>
+        <v>0.032293894283208</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01803168677694126</v>
+        <v>0.0180705728465648</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2747181890201715</v>
+        <v>0.274670781002352</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2747181890201715</v>
+        <v>0.274670781002352</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2747181890201715</v>
+        <v>0.274670781002352</v>
       </c>
       <c r="G6" t="n">
-        <v>0.009762529783353572</v>
+        <v>0.009858187361303346</v>
       </c>
       <c r="H6" t="n">
-        <v>0.01447389833103727</v>
+        <v>0.01444850755692005</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0273089159726388</v>
+        <v>0.02730420328295604</v>
       </c>
       <c r="J6" t="n">
-        <v>0.03075403613620887</v>
+        <v>0.03082088996557452</v>
       </c>
       <c r="K6" t="n">
-        <v>0.02513793820158432</v>
+        <v>0.02513360015674479</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01806091830576609</v>
+        <v>0.01805780153967234</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2016</v>
+        <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.03062593730074178</v>
+        <v>0.03059694283069506</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01614727337630365</v>
+        <v>0.01616599339434223</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2779098999955008</v>
+        <v>0.2778760272162845</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2779098999955008</v>
+        <v>0.2778760272162845</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2779098999955008</v>
+        <v>0.2778760272162845</v>
       </c>
       <c r="G7" t="n">
-        <v>0.01092299650158873</v>
+        <v>0.01106956940224668</v>
       </c>
       <c r="H7" t="n">
-        <v>0.01550760746433822</v>
+        <v>0.01548871589991116</v>
       </c>
       <c r="I7" t="n">
-        <v>0.02492544988740691</v>
+        <v>0.02492241187306878</v>
       </c>
       <c r="J7" t="n">
-        <v>0.02869348031208248</v>
+        <v>0.02868678653320027</v>
       </c>
       <c r="K7" t="n">
-        <v>0.02327169709717179</v>
+        <v>0.02326761192262537</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01617585807386428</v>
+        <v>0.01617388649505699</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2017</v>
+        <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.02940711605473062</v>
+        <v>0.02931512870053687</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01541686212844241</v>
+        <v>0.01553495130605734</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2797875099958642</v>
+        <v>0.27975883466258</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2797875099958642</v>
+        <v>0.27975883466258</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2797875099958642</v>
+        <v>0.27975883466258</v>
       </c>
       <c r="G8" t="n">
-        <v>0.01114821479681065</v>
+        <v>0.01123757716558897</v>
       </c>
       <c r="H8" t="n">
-        <v>0.01506863113219913</v>
+        <v>0.01504783458713188</v>
       </c>
       <c r="I8" t="n">
-        <v>0.02352979065572861</v>
+        <v>0.02352737909493674</v>
       </c>
       <c r="J8" t="n">
-        <v>0.02821671733232037</v>
+        <v>0.0282164014412458</v>
       </c>
       <c r="K8" t="n">
-        <v>0.02205294574169225</v>
+        <v>0.0220486505955015</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01579719217048327</v>
+        <v>0.01579557312126106</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2018</v>
+        <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0927100618850025</v>
+        <v>0.09243159178131261</v>
       </c>
       <c r="C9" t="n">
-        <v>0.04586839999773216</v>
+        <v>0.04629201208161386</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1093561005114117</v>
+        <v>0.1089185235587294</v>
       </c>
       <c r="E9" t="n">
-        <v>0.08597104748347924</v>
+        <v>0.08576980770186662</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3089040506307332</v>
+        <v>0.3083317773710156</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03415114306255543</v>
+        <v>0.03429483914799264</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0503174399911184</v>
+        <v>0.05015211356546774</v>
       </c>
       <c r="I9" t="n">
-        <v>0.06922496668202957</v>
+        <v>0.06904971612623884</v>
       </c>
       <c r="J9" t="n">
-        <v>0.08714234954768831</v>
+        <v>0.08871693128060702</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0691697833183853</v>
+        <v>0.06897748360218466</v>
       </c>
       <c r="L9" t="n">
-        <v>0.04718465688986409</v>
+        <v>0.04706520378297094</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2019</v>
+        <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.07409614348731416</v>
+        <v>0.0740042623035839</v>
       </c>
       <c r="C10" t="n">
-        <v>0.03654993477238656</v>
+        <v>0.03698482539352872</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1762154408803165</v>
+        <v>0.1752141295142203</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0660248370922312</v>
+        <v>0.06687629583591029</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3574758388495711</v>
+        <v>0.3563499719909894</v>
       </c>
       <c r="G10" t="n">
-        <v>0.02820731383344901</v>
+        <v>0.02842290680627832</v>
       </c>
       <c r="H10" t="n">
-        <v>0.04172240126048095</v>
+        <v>0.04303797137297106</v>
       </c>
       <c r="I10" t="n">
-        <v>0.05429539788076298</v>
+        <v>0.05408475679153449</v>
       </c>
       <c r="J10" t="n">
-        <v>0.07112702695921265</v>
+        <v>0.07110499987883605</v>
       </c>
       <c r="K10" t="n">
-        <v>0.05532034071673994</v>
+        <v>0.05510572332226656</v>
       </c>
       <c r="L10" t="n">
-        <v>0.03896532426753491</v>
+        <v>0.038814156789881</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2020</v>
+        <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.08862027041222509</v>
+        <v>0.08837182357799218</v>
       </c>
       <c r="C11" t="n">
-        <v>0.04247831971671878</v>
+        <v>0.04317942116128062</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1113300851457152</v>
+        <v>0.1111148622063681</v>
       </c>
       <c r="E11" t="n">
-        <v>0.05715398458909682</v>
+        <v>0.05739730139677748</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3178844509867008</v>
+        <v>0.3173627499855957</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03423046095659657</v>
+        <v>0.03429988230406682</v>
       </c>
       <c r="H11" t="n">
-        <v>0.05129462312306098</v>
+        <v>0.05120892107456505</v>
       </c>
       <c r="I11" t="n">
-        <v>0.07200200171636766</v>
+        <v>0.07188380452061338</v>
       </c>
       <c r="J11" t="n">
-        <v>0.09144725296787383</v>
+        <v>0.09184187507522724</v>
       </c>
       <c r="K11" t="n">
-        <v>0.07873160231824707</v>
+        <v>0.07860239072698948</v>
       </c>
       <c r="L11" t="n">
-        <v>0.05482694806739712</v>
+        <v>0.05473696797052383</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2021</v>
+        <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0876933459182648</v>
+        <v>0.08865336150937887</v>
       </c>
       <c r="C12" t="n">
-        <v>0.04406031984606244</v>
+        <v>0.04425214597402717</v>
       </c>
       <c r="D12" t="n">
-        <v>0.08841276444131765</v>
+        <v>0.08819631083688115</v>
       </c>
       <c r="E12" t="n">
-        <v>0.08421150249323951</v>
+        <v>0.08404342916431293</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3451836270335332</v>
+        <v>0.3445686692691855</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0349463413865858</v>
+        <v>0.0353005153667775</v>
       </c>
       <c r="H12" t="n">
-        <v>0.05669767946212881</v>
+        <v>0.05648403163174949</v>
       </c>
       <c r="I12" t="n">
-        <v>0.06038302674803663</v>
+        <v>0.06027545208856416</v>
       </c>
       <c r="J12" t="n">
-        <v>0.09124486197906759</v>
+        <v>0.09125047471902367</v>
       </c>
       <c r="K12" t="n">
-        <v>0.06428359700069018</v>
+        <v>0.06416907332691249</v>
       </c>
       <c r="L12" t="n">
-        <v>0.04288293369107327</v>
+        <v>0.04280653611318706</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2022</v>
+        <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.08544563329982133</v>
+        <v>0.08530690362188113</v>
       </c>
       <c r="C13" t="n">
-        <v>0.04135912941652858</v>
+        <v>0.04176692920578562</v>
       </c>
       <c r="D13" t="n">
-        <v>0.08932540893190004</v>
+        <v>0.08924955336854541</v>
       </c>
       <c r="E13" t="n">
-        <v>0.08234325860598596</v>
+        <v>0.08238727067147589</v>
       </c>
       <c r="F13" t="n">
-        <v>0.3467895980973573</v>
+        <v>0.3462739770509088</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03395947385623638</v>
+        <v>0.03400585962665137</v>
       </c>
       <c r="H13" t="n">
-        <v>0.05808005902300681</v>
+        <v>0.05784248174081966</v>
       </c>
       <c r="I13" t="n">
-        <v>0.06974165242045179</v>
+        <v>0.06969244583253589</v>
       </c>
       <c r="J13" t="n">
-        <v>0.08412050961649599</v>
+        <v>0.08476158405091996</v>
       </c>
       <c r="K13" t="n">
-        <v>0.06522859842875593</v>
+        <v>0.06513708344714522</v>
       </c>
       <c r="L13" t="n">
-        <v>0.04360667830345975</v>
+        <v>0.04357591138333111</v>
       </c>
     </row>
   </sheetData>
@@ -1040,37 +1040,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.07509312263569212</v>
+        <v>0.07508398080825338</v>
       </c>
       <c r="C2" t="n">
-        <v>0.06254851235331896</v>
+        <v>0.06279553396207424</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1593167031919833</v>
+        <v>0.1589875937399934</v>
       </c>
       <c r="E2" t="n">
-        <v>0.06299504002214977</v>
+        <v>0.06322226011668901</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3417975104492597</v>
+        <v>0.3413925607113113</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02474586158242428</v>
+        <v>0.02491651947432241</v>
       </c>
       <c r="H2" t="n">
-        <v>0.03771182442820543</v>
+        <v>0.03774329530823251</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0602634254654064</v>
+        <v>0.06018089690250883</v>
       </c>
       <c r="J2" t="n">
-        <v>0.07594387158354564</v>
+        <v>0.07623649493260984</v>
       </c>
       <c r="K2" t="n">
-        <v>0.05831647659196592</v>
+        <v>0.05822972459079231</v>
       </c>
       <c r="L2" t="n">
-        <v>0.04126765169604881</v>
+        <v>0.04121113945321297</v>
       </c>
     </row>
   </sheetData>
